--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value654.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value654.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.980418621704546</v>
+        <v>1.238453984260559</v>
       </c>
       <c r="B1">
-        <v>2.534542808329787</v>
+        <v>2.368208169937134</v>
       </c>
       <c r="C1">
-        <v>2.66210647419819</v>
+        <v>3.236217498779297</v>
       </c>
       <c r="D1">
-        <v>3.299644519220067</v>
+        <v>3.527665853500366</v>
       </c>
       <c r="E1">
-        <v>1.13153111032689</v>
+        <v>1.10883367061615</v>
       </c>
     </row>
   </sheetData>
